--- a/public/tutor.xlsx
+++ b/public/tutor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheWait\Documents\作业\毕设\vue-manage-system-4.2.0\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449C5EF8-403A-4F5E-A8C3-07CB8CD67B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C70677-67BC-45E2-9010-001BDBA01D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5910" yWindow="2655" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,11 +55,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请勿更改第二行的字段名，如一个导师指导多个专业，请用英文逗号分隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">填写说明：        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请勿更改第二行的字段名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+id：教工号，用于初始化用户，默认用户名和密码均为教工号；major：导师指导的专业，指导多个专业用英文逗号分割
+students：不填；grade：指导的学生年级；link：导师的个人介绍链接，可填写学院的教师介绍页面
+</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +114,14 @@
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -112,11 +146,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -402,7 +439,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -413,17 +450,17 @@
     <col min="8" max="8" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -439,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>

--- a/public/tutor.xlsx
+++ b/public/tutor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheWait\Documents\作业\毕设\vue-manage-system-4.2.0\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C70677-67BC-45E2-9010-001BDBA01D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65EA611-AA00-43E6-9C4D-7CD3A77DCC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5910" yWindow="2655" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>major</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>students</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -436,23 +432,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="25.875" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="35" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -460,9 +456,8 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -473,10 +468,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -484,37 +479,34 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H10" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
